--- a/Supplementary Tables.xlsx
+++ b/Supplementary Tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u1123114/Documents/projects/kinspace/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u1123114/Documents/projects/kinspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D820411A-B61E-C24F-957A-B8C2CC80ECE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741CD0AD-B3B9-2640-BA82-8795104C0B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" activeTab="5" xr2:uid="{25F42487-C902-944F-BB35-F84E493066D3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19400" activeTab="10" xr2:uid="{25F42487-C902-944F-BB35-F84E493066D3}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,18 @@
     <sheet name="S3 g1" sheetId="4" r:id="rId4"/>
     <sheet name="S4 g2" sheetId="5" r:id="rId5"/>
     <sheet name="S5 niblings" sheetId="3" r:id="rId6"/>
+    <sheet name="S6 g0 edges" sheetId="8" r:id="rId7"/>
+    <sheet name="S7 siblings edges" sheetId="9" r:id="rId8"/>
+    <sheet name="S8 niblings edges" sheetId="10" r:id="rId9"/>
+    <sheet name="S9 g1 edges" sheetId="11" r:id="rId10"/>
+    <sheet name="S10 g2 edges" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'S10 g2 edges'!$A$1:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'S3 g0'!$A$1:$AT$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'S6 g0 edges'!$A$1:$G$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'S7 siblings edges'!$A$1:$G$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'S9 g1 edges'!$A$1:$G$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="632">
   <si>
     <t>Cluster</t>
   </si>
@@ -719,13 +728,1234 @@
   </si>
   <si>
     <t>grandmother, father's father, mother's father</t>
+  </si>
+  <si>
+    <t>This requires at least change to cross and relative age rules</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>O (eB FBeS FZeS MBeS MZeS) (eD FBeD FZeD MBeD MZeD) (yB FByS FZyS MByS MZyS) (yD FByD FZyD MByD MZyD)</t>
+  </si>
+  <si>
+    <t>N eB eZ (yB yZ)  (FBS FBD FZS FZS MBS MBD MZS MZD)</t>
+  </si>
+  <si>
+    <t>This requires at least changes to relative age and cross distinctions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA </t>
+  </si>
+  <si>
+    <t>M eB yB eZ yZ  e(FBS FBD FZS FZS MBS MBD MZS MZD)  y(FBS FBD FZS FZS MBS MBD MZS MZD)</t>
+  </si>
+  <si>
+    <t>This requires at least changes to relative age and gender rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes between relative sex and sex of speaker distinctions</t>
+  </si>
+  <si>
+    <t>L fX mX (FBS FBD FZS FZS MBS MBD MZS MZD)</t>
+  </si>
+  <si>
+    <t>This requires at least changes to relative age and sex of speaker distinctions</t>
+  </si>
+  <si>
+    <t>This requires at leaast changes to sex of speaker and relative sex distinctions</t>
+  </si>
+  <si>
+    <t>This requires at least changes to cross distinctions</t>
+  </si>
+  <si>
+    <t>K (eB FBeS MZeS) (eZ FBeD MZeD) (yB FByS MZyS yZ FByD MZyD) (FZS MBS) (FZD MBD)</t>
+  </si>
+  <si>
+    <t>This requires at least changes to nuclear family and cross distinctions</t>
+  </si>
+  <si>
+    <t>This requires changes to at least cross and relative age distinctions</t>
+  </si>
+  <si>
+    <t>J B Z (FBS FBD FZS FZS MBS MBD MZS MZD)</t>
+  </si>
+  <si>
+    <t>This requires the removel of gender and addition of relative age to sibling terms</t>
+  </si>
+  <si>
+    <t>Adding a relative age distinction to all existing terms results in this change</t>
+  </si>
+  <si>
+    <t>Relational</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Add relative age</t>
+  </si>
+  <si>
+    <t>This requires change to gender and relative sex rules</t>
+  </si>
+  <si>
+    <t>This requires changes to nuclear family and relative age rules at least</t>
+  </si>
+  <si>
+    <t>This requires at least a change to relative sex rules and nuclear family rules</t>
+  </si>
+  <si>
+    <t>I fX mX e// y//</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age and cross rules at least</t>
+  </si>
+  <si>
+    <t>H X //</t>
+  </si>
+  <si>
+    <t>This requires at least a change to relative sex, relative age, and cross rules</t>
+  </si>
+  <si>
+    <t>This requires at least a change to sex of speaker and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires at least a change to relative age and cross rules</t>
+  </si>
+  <si>
+    <t>G (B FBS MZS) (Z FBD MZD) (FZS FZD MBS MBD)</t>
+  </si>
+  <si>
+    <t>This requires at least changes to relative age and cross rules</t>
+  </si>
+  <si>
+    <t>This requires a change to cross and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires a change to cross and relative sex rules</t>
+  </si>
+  <si>
+    <t>This requires a change to gender and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes to gender and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes to cross and relative sex rules</t>
+  </si>
+  <si>
+    <t>This requires at least a relative age and cross rule change</t>
+  </si>
+  <si>
+    <t>F (B Z) (FBS FBD FZS FZS MBS MBD MZS MZD)</t>
+  </si>
+  <si>
+    <t>This requires a gender and relative age change</t>
+  </si>
+  <si>
+    <t>This change requires a gender and relative age change</t>
+  </si>
+  <si>
+    <t>Adding a relative sex rule to siblings results in this change</t>
+  </si>
+  <si>
+    <t>Conjunctive</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Add relative sex</t>
+  </si>
+  <si>
+    <t>This requires at least a change to cross and relative age rules</t>
+  </si>
+  <si>
+    <t>Adding gender distinctions to siblings results in this change</t>
+  </si>
+  <si>
+    <t>Add Gender</t>
+  </si>
+  <si>
+    <t>This requires at least a change to cross and nuclear family distinctions</t>
+  </si>
+  <si>
+    <t>This requires at least changes to cross and relative age rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E B Z (FBS FZS MBS MZS) (FBD FZD MBD MZD) </t>
+  </si>
+  <si>
+    <t>This requires at least changes to relative sex and sex of speaker distinctions</t>
+  </si>
+  <si>
+    <t>Removing gender distinctinos from cousin terms makes this change</t>
+  </si>
+  <si>
+    <t>Lose Gender</t>
+  </si>
+  <si>
+    <t>This requires changes at least to nuclear family and relative sex rules</t>
+  </si>
+  <si>
+    <t>This requires changes in cross and nuclear family rules</t>
+  </si>
+  <si>
+    <t>Removing gender distinctions from this structure results in this change</t>
+  </si>
+  <si>
+    <t>This requires changes to at least relative age and gender rules</t>
+  </si>
+  <si>
+    <t>D eB yB eZ yZ (FBS FBS MZS MZD) (FZS FZD MBS MBD)</t>
+  </si>
+  <si>
+    <t>This requires changes to relativeage and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to relative sex and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to cross and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires changes to gender and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes to relative sex and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires a change from relative age and gender rules</t>
+  </si>
+  <si>
+    <t>Removeing relative age from siblings results in this change</t>
+  </si>
+  <si>
+    <t>Lose relative age</t>
+  </si>
+  <si>
+    <t>This requires changes to at least cross rules and relative age</t>
+  </si>
+  <si>
+    <t>C eB yB eZ yZ  FBS FBD FZS FZS MBS MBD MZS MZD</t>
+  </si>
+  <si>
+    <t>This requires at least changes to gender and relative sex rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes to cross and gender rules</t>
+  </si>
+  <si>
+    <t>This requires at least a change to nuclear family and relative sex rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes to relative age and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes to lineage and relative age rules</t>
+  </si>
+  <si>
+    <t>Removing the lineage distinctino means cousins are only distinguished by gender</t>
+  </si>
+  <si>
+    <t>Lose Lineage</t>
+  </si>
+  <si>
+    <t>This changes requires changes to relative age and cross rules</t>
+  </si>
+  <si>
+    <t>B eB yB eZ yZ  (FBS FBD FZS FZS MBS MBD MZS MZD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding a gender distinction to elder siblings changes the sibling organisation here. </t>
+  </si>
+  <si>
+    <t>Tertiary</t>
+  </si>
+  <si>
+    <t>Adding relative age to cousin terms makes this change</t>
+  </si>
+  <si>
+    <t>This requires at least changes to relative age and relative gender</t>
+  </si>
+  <si>
+    <t>This requires at least changes to the cross and relative age rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The loss of relative age changes the sibling structure </t>
+  </si>
+  <si>
+    <t>This at least requires changes to relative age and gender rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes to nuclear and cross rules</t>
+  </si>
+  <si>
+    <t>This requires the loss of both relative age and gender terms</t>
+  </si>
+  <si>
+    <t>This requires a removal of gender to sibling terms and the application of it to cousins</t>
+  </si>
+  <si>
+    <t>Adding gender to cousin terms makes this change</t>
+  </si>
+  <si>
+    <t>This requires the addition of lineage and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to lineage and relative age rules at least</t>
+  </si>
+  <si>
+    <t>A (eB eZ) (yB yZ) (FBS FBD FZS FZS MBS MBD MZS MZD)</t>
+  </si>
+  <si>
+    <t>Applying a gender distinction to elder siblings makes this change</t>
+  </si>
+  <si>
+    <t>This requires a change to relative age and gender rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes to the relative sex and sex of speaker rules</t>
+  </si>
+  <si>
+    <t>This requires the change of relative age and lineage rules</t>
+  </si>
+  <si>
+    <t>This change requires the loss of relative age and gain of gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to the lineage and relative sex rules</t>
+  </si>
+  <si>
+    <t>This requires changes to the lineage and gender rules</t>
+  </si>
+  <si>
+    <t>Removing the relative age distinction from siblings leave the gender categories</t>
+  </si>
+  <si>
+    <t>Adding a gender distinction to all existing terms results in four sibling terms and two cousin terms</t>
+  </si>
+  <si>
+    <t>This change at least requires at least two changes in the gender rules</t>
+  </si>
+  <si>
+    <t>Losing the gender distinction in siblings leaves the elder vs younger categories</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age, gender, sex of speaker</t>
+  </si>
+  <si>
+    <t>O B eZ yZ</t>
+  </si>
+  <si>
+    <t>N fX mX fe// fy// me// my//</t>
+  </si>
+  <si>
+    <t>M (eB eZ) yB yZ</t>
+  </si>
+  <si>
+    <t>L mX fX //</t>
+  </si>
+  <si>
+    <t>This requires changes to sex of speaker and relative age</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age and sex of speaker</t>
+  </si>
+  <si>
+    <t>K X f// m//</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age, and a sex of speaker extention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This requires changes to relative age, sex of speaker, and relative gender </t>
+  </si>
+  <si>
+    <t>This requires two changes to the partial application of sex of speaker</t>
+  </si>
+  <si>
+    <t>J mX fX m// f//</t>
+  </si>
+  <si>
+    <t>This change sees the partial application of relative age to same sex siblings</t>
+  </si>
+  <si>
+    <t>This restricts the extent of sex of speaker</t>
+  </si>
+  <si>
+    <t>Lose sex of speaker</t>
+  </si>
+  <si>
+    <t>I X e// y//</t>
+  </si>
+  <si>
+    <t>Adding sex of speaker to all terms results in this change</t>
+  </si>
+  <si>
+    <t>Add sex of speaker</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age and relative sex</t>
+  </si>
+  <si>
+    <t>This requires two changes to the partial application of relative age</t>
+  </si>
+  <si>
+    <t>H eB yB Z</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age and gender</t>
+  </si>
+  <si>
+    <t>This requires changes on sex of speaker, gender, and relative sex</t>
+  </si>
+  <si>
+    <t>G e// y// fX mX</t>
+  </si>
+  <si>
+    <t>Extending the sex of speaker distinction to both same and opposite sex siblings</t>
+  </si>
+  <si>
+    <t>Loss of relative age in same gender siblings</t>
+  </si>
+  <si>
+    <t>This requires changes to the sex of speaker and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires changes to the relative age and sex of speaker rules</t>
+  </si>
+  <si>
+    <t>Remove sex of speaker from opposite sex siblings</t>
+  </si>
+  <si>
+    <t>This requires changes to relative sex, relative age, and gender</t>
+  </si>
+  <si>
+    <t>This change requires changes to gender and relative age</t>
+  </si>
+  <si>
+    <t>F (B Z)</t>
+  </si>
+  <si>
+    <t>This change requires changes to sex of speaker, relative age, and relative sex</t>
+  </si>
+  <si>
+    <t>This change requires changes to relative age and gender</t>
+  </si>
+  <si>
+    <t>This change requires changes to relative sex and sex of speaker</t>
+  </si>
+  <si>
+    <t>This change requires changes to relative sex and relative age</t>
+  </si>
+  <si>
+    <t>This change requires changes to relative age, sex of speaker, and relative sex</t>
+  </si>
+  <si>
+    <t>This change requires changes to gender, relative age and relative sex distinctions</t>
+  </si>
+  <si>
+    <t>E X //</t>
+  </si>
+  <si>
+    <t>This change requires the addition of relative age, and relative sex distinctions</t>
+  </si>
+  <si>
+    <t>This change requires changes to relative age, gender, and relative sex distinctions</t>
+  </si>
+  <si>
+    <t>A partial addition of a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>The addition of sex of speaker adds two terms to this distinction</t>
+  </si>
+  <si>
+    <t>The addition of relative age to same sex speakers</t>
+  </si>
+  <si>
+    <t>This change requires rule changes on relative age, gender, and relative sex distinctions</t>
+  </si>
+  <si>
+    <t>This change requires the addition of relative age</t>
+  </si>
+  <si>
+    <t>This changes from siblings being distinguished by sex of speaker to treating all siblings the same</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Add relative sex distinction</t>
+  </si>
+  <si>
+    <t>This requires changes in rule on gender and relative age</t>
+  </si>
+  <si>
+    <t>D eB eZ (yB yZ)</t>
+  </si>
+  <si>
+    <t>This requires a shift between a primary rule of relative age to sex of speaker</t>
+  </si>
+  <si>
+    <t>This requires the loss and gain of two partial relative age changes</t>
+  </si>
+  <si>
+    <t>This requires two changes in rules aroud gender and reltaive age distinction</t>
+  </si>
+  <si>
+    <t>Distinguishing female biblings by age results in this change</t>
+  </si>
+  <si>
+    <t>Add relative Age</t>
+  </si>
+  <si>
+    <t>C B Z</t>
+  </si>
+  <si>
+    <t>This change requires multiple rule changes</t>
+  </si>
+  <si>
+    <t>M requires the primary rule to be relative age</t>
+  </si>
+  <si>
+    <t>Adding sex of speaker to brother and sister would see separate terms for siblings for each gender</t>
+  </si>
+  <si>
+    <t>This change requires the addition of sex of speaker and relative age</t>
+  </si>
+  <si>
+    <t>Distinguishing male siblings by age results in this change</t>
+  </si>
+  <si>
+    <t>This change requires many rule changes</t>
+  </si>
+  <si>
+    <t>Loss of a gender distinction results in all siblings terms grouped</t>
+  </si>
+  <si>
+    <t>This change requires either male or female speakers to shift thei categorisation twice</t>
+  </si>
+  <si>
+    <t>This change requires the loss of a gender distinction and for relative age to be the rpimary rule</t>
+  </si>
+  <si>
+    <t>This change requires the relative age distinction to be lost and a primary gender distinction to be gained</t>
+  </si>
+  <si>
+    <t>B (eB eZ) (yB yZ)</t>
+  </si>
+  <si>
+    <t>A change from B to N requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>Adding a gender distinction to younger siblings shifts from B to M</t>
+  </si>
+  <si>
+    <t>A change from B to L requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>A change from B to k requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>A change from B to J requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>A change from B to I requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>A change from B to G requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>G e// y // fX mX</t>
+  </si>
+  <si>
+    <t>Losing a distinction of relative age results in all siblings being grouped</t>
+  </si>
+  <si>
+    <t>Lose Relative Age</t>
+  </si>
+  <si>
+    <t>A change from B to E requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>Adding a gender distinction to elder siblings shifts from B to D</t>
+  </si>
+  <si>
+    <t>B to C requires the loss of relative age and the addition of gender</t>
+  </si>
+  <si>
+    <t>The loss of the relative age distinction in male siblings creates this result</t>
+  </si>
+  <si>
+    <t>A eB eZ yB yZ</t>
+  </si>
+  <si>
+    <t>A change from A to N requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>The loss of the gender distinction in elder siblings merges them</t>
+  </si>
+  <si>
+    <t>A change from A to L requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>A change from A to K requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>A change from A to J requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>A change from A to I requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>The loss of the relative age distinction in female siblings creates this result</t>
+  </si>
+  <si>
+    <t>A change from A to G requires the primary rule to be changed to a sex of speaker distinction</t>
+  </si>
+  <si>
+    <t>A change from A to F requires the loss of both gender and age distinctions</t>
+  </si>
+  <si>
+    <t>A change from A to E requires the lose of both gender and age distinctions and the addition of sex of speaker distinctions</t>
+  </si>
+  <si>
+    <t>Only remove the importance of gender in younger siblings</t>
+  </si>
+  <si>
+    <t>Removing the importance of age distinctions only leaves gender distinctions</t>
+  </si>
+  <si>
+    <t>A distinguishes on gender and age. Removing gender results in B</t>
+  </si>
+  <si>
+    <t>This requires changes to at least sex of speaker and gender rules</t>
+  </si>
+  <si>
+    <t>Q D (BD fZD) (fBS mZS) (S fZS mBS) mZD</t>
+  </si>
+  <si>
+    <t>P (D BD ZD) S (BS ZS)</t>
+  </si>
+  <si>
+    <t>This requires changes to at least child and sex of speaker rules</t>
+  </si>
+  <si>
+    <t>O (S D) (BD ZD) (BS ZS)</t>
+  </si>
+  <si>
+    <t>This requires changes to at least child and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes at least fo sex of speker and lineage rules</t>
+  </si>
+  <si>
+    <t>N D S m(BS BD) m(ZS ZD) f(BS BD) f(ZS ZD)</t>
+  </si>
+  <si>
+    <t>This requires at least a change to sex of speaker and child rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M (S D ZS ZD)(BS BD) </t>
+  </si>
+  <si>
+    <t>This requires at least a change to lineage and gender rules</t>
+  </si>
+  <si>
+    <t>This requires at least a change to child and sex of speaker rules</t>
+  </si>
+  <si>
+    <t>L (D S fZD fZS mBD mBS) (fBD fBS) (mZS mZD)</t>
+  </si>
+  <si>
+    <t>This requires at least a change to sex of speaker and gender</t>
+  </si>
+  <si>
+    <t>This requires at least changes to the sex of speaker and child rules</t>
+  </si>
+  <si>
+    <t>This requires changes to sex of speaker and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires changes to at least sex of speaker and lineage rules</t>
+  </si>
+  <si>
+    <t>K (S BS)(D BD) (ZS ZD)</t>
+  </si>
+  <si>
+    <t>This requires changes to at least gender and child rules</t>
+  </si>
+  <si>
+    <t>This requires at least changes between gender and lineage</t>
+  </si>
+  <si>
+    <t>This requires at least changes to child and sex of speaker distinctions</t>
+  </si>
+  <si>
+    <t>This requires at least changes to lineage and gender distinctions</t>
+  </si>
+  <si>
+    <t>This requires at least changes to gender and sex of speaker distinctions</t>
+  </si>
+  <si>
+    <t>J (D S BD BS fZD fZS) (mZD mZS)</t>
+  </si>
+  <si>
+    <t>This requires change to sex of speaker and gender distinctions</t>
+  </si>
+  <si>
+    <t>This requires multiple changes to gender and lineage distinctions</t>
+  </si>
+  <si>
+    <t>Adding a sex of speaker distinction to both siblings children makes this distinction</t>
+  </si>
+  <si>
+    <t>Add Sex of Speaker</t>
+  </si>
+  <si>
+    <t>This requires changes to at least gender and sex of speaker rules</t>
+  </si>
+  <si>
+    <t>This requires change to at least sex of speaker and lineage rules</t>
+  </si>
+  <si>
+    <t>I (S D BS BD) (ZD ZS)</t>
+  </si>
+  <si>
+    <t>This requires change to lineage and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to lineage and gender rules</t>
+  </si>
+  <si>
+    <t>This requires two change to the lineage rule</t>
+  </si>
+  <si>
+    <t>This requires at least a change to gender and sex of speaker rules</t>
+  </si>
+  <si>
+    <t>Adding a gender distinction to children and brother's childre makes this change</t>
+  </si>
+  <si>
+    <t>This requires a change to lineage and sex of speaker distinctions</t>
+  </si>
+  <si>
+    <t>This requires at least change to Child and gender rules</t>
+  </si>
+  <si>
+    <t>H C</t>
+  </si>
+  <si>
+    <t>This requires a change to gender and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires a change to child and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires a change to child and gender rules</t>
+  </si>
+  <si>
+    <t>Partially appling a lineage rule to sisters children would separate them from all other niblings</t>
+  </si>
+  <si>
+    <t>Add Lineage</t>
+  </si>
+  <si>
+    <t>This requires a change to lineage and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to lineage and child rules at least</t>
+  </si>
+  <si>
+    <t>This requires a change to sex of speaker and child rules</t>
+  </si>
+  <si>
+    <t>G (S BS ZS) (D BD ZD)</t>
+  </si>
+  <si>
+    <t>Partially applying the child rule to Sons creates a separate term for S</t>
+  </si>
+  <si>
+    <t>Add Child</t>
+  </si>
+  <si>
+    <t>This require a change to lineage and gender rules</t>
+  </si>
+  <si>
+    <t>This requires a change to sex of speaker and gender rules</t>
+  </si>
+  <si>
+    <t>Removing the gender distinction reuslts in a single term</t>
+  </si>
+  <si>
+    <t>This requires at least a change in gender and child rules</t>
+  </si>
+  <si>
+    <t>F (D BD ZD) (S ZS) BS</t>
+  </si>
+  <si>
+    <t>This requires at least a change in lineage and gender rules</t>
+  </si>
+  <si>
+    <t>This requires at least a change in child and gender rules</t>
+  </si>
+  <si>
+    <t>This requires a change in child and lineage rules and sex of speaker</t>
+  </si>
+  <si>
+    <t>This requires a change in gender and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires at least a change in sex of speaker and gender rules</t>
+  </si>
+  <si>
+    <t>This requires a change in sex of speaker and gender rules</t>
+  </si>
+  <si>
+    <t>This requires a change in gender and child rules</t>
+  </si>
+  <si>
+    <t>This requires changes to gender and children rules</t>
+  </si>
+  <si>
+    <t>This requires at least a change to child, sex of speaker and gender rules</t>
+  </si>
+  <si>
+    <t>E D S BS BD ZS ZD</t>
+  </si>
+  <si>
+    <t>This requires a change in child and gender rules</t>
+  </si>
+  <si>
+    <t>This requires at least a change to child and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires a loss of lineage and gender distinctions</t>
+  </si>
+  <si>
+    <t>This requires a loss of the lineage distinction and the child distinction</t>
+  </si>
+  <si>
+    <t>This requires a gender change a gender change</t>
+  </si>
+  <si>
+    <t>This requires at least a sex of speaker and gender change</t>
+  </si>
+  <si>
+    <t>D D S (BS BD) (ZS ZD)</t>
+  </si>
+  <si>
+    <t>This requires a gender change and child change</t>
+  </si>
+  <si>
+    <t>Adding a sex of speaker distinction to parent's siblings children makes this change</t>
+  </si>
+  <si>
+    <t>This requires a gender and child rule change at least</t>
+  </si>
+  <si>
+    <t>This requires a sex of speaker and gender change at least</t>
+  </si>
+  <si>
+    <t>This requires a change in lineage and child rules</t>
+  </si>
+  <si>
+    <t>This requires a change in sex of speaker, child, and gender rules</t>
+  </si>
+  <si>
+    <t>This requires a change child and lineage rules</t>
+  </si>
+  <si>
+    <t>Adding a gender distinction to siblings children splits them on child and lineage</t>
+  </si>
+  <si>
+    <t>C D S (BC ZC)</t>
+  </si>
+  <si>
+    <t>This requires a change in child or gender rules</t>
+  </si>
+  <si>
+    <t>This requires a change in children and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires a lineage distinction and gender distinction</t>
+  </si>
+  <si>
+    <t>Adding a lineage distinction to siblings children makes this change</t>
+  </si>
+  <si>
+    <t>This requires changes to sex of speaker and children rules</t>
+  </si>
+  <si>
+    <t>B (D S) (BC ZC)</t>
+  </si>
+  <si>
+    <t>This requires a changes to children and gender rules</t>
+  </si>
+  <si>
+    <t>Partially  adding a gender distinction to siblings children makes this change</t>
+  </si>
+  <si>
+    <t>This requires a change in sex of speaker a children rules</t>
+  </si>
+  <si>
+    <t>This requires a change in sex of speaker and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires change to children and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires changes between Children and gender rules</t>
+  </si>
+  <si>
+    <t>Removing a distinction of children groups all children and niblings together</t>
+  </si>
+  <si>
+    <t>Lose Child</t>
+  </si>
+  <si>
+    <t>This requires the addition of gender distinctions and lineage distinctions</t>
+  </si>
+  <si>
+    <t>Adding a gender distinction to all categories results in this change</t>
+  </si>
+  <si>
+    <t>Adding a partial gender distinction to offspring results in this change</t>
+  </si>
+  <si>
+    <t>This requires changes in Child and sex of speaker rules</t>
+  </si>
+  <si>
+    <t>A D S (BS ZS) (BD ZD)</t>
+  </si>
+  <si>
+    <t>Removing the child distinction for daughters sees them group with all other female children</t>
+  </si>
+  <si>
+    <t>Removing the gender distinction within children results in this change</t>
+  </si>
+  <si>
+    <t>This requires change in gender and lineage rules</t>
+  </si>
+  <si>
+    <t>This requires a change in Child and sex of speaker rules</t>
+  </si>
+  <si>
+    <t>This requires a change in child and lineage rules</t>
+  </si>
+  <si>
+    <t>Losing a rule distinguish offspring groups all children by gender</t>
+  </si>
+  <si>
+    <t>This requires changes to the child rules and lineage rules</t>
+  </si>
+  <si>
+    <t>Adding a lineage rule seperates the gendered terms into individuals terms for each child</t>
+  </si>
+  <si>
+    <t>This requires a change in lineage and gender rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partially losing a gender distinction within siblings children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This requires a two changes in gender rules </t>
+  </si>
+  <si>
+    <t>This requires changes to the relative age and gender rules</t>
+  </si>
+  <si>
+    <t>L F M FeB FyB FZ MB MZ</t>
+  </si>
+  <si>
+    <t>K F M (eFB eMB) (yFB yMB) (yFB yFB) (eFZ eMZ) (yFZ yMZ)</t>
+  </si>
+  <si>
+    <t>This requires changes to the relative age and parent rules</t>
+  </si>
+  <si>
+    <t>J (F FB MB) (M FZ MZ)</t>
+  </si>
+  <si>
+    <t>I F M (FB MB) FZ MZ</t>
+  </si>
+  <si>
+    <t>This requires changes to the relative age and cross rules</t>
+  </si>
+  <si>
+    <t>This requires changes to the parent and parallel rules</t>
+  </si>
+  <si>
+    <t>This requires changes to the parellel and relative age rules</t>
+  </si>
+  <si>
+    <t>H F FB FZ (M MZ) MB</t>
+  </si>
+  <si>
+    <t>This requires changes to the parallel and relative age rules</t>
+  </si>
+  <si>
+    <t>This requires changes to the cross rules and parent rules</t>
+  </si>
+  <si>
+    <t>This requires change to the parallel and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to a parallel and relative age rule</t>
+  </si>
+  <si>
+    <t>G F M FB (FZ MZ) MB</t>
+  </si>
+  <si>
+    <t>This requires changes to the relative age, parrallel and cross rules</t>
+  </si>
+  <si>
+    <t>This requires changes to gender and parallel rules</t>
+  </si>
+  <si>
+    <t>This requires multiple changes to the parallel and cross rules</t>
+  </si>
+  <si>
+    <t>This requires changes to the parallel and cross rules</t>
+  </si>
+  <si>
+    <t>This requires changes to the relative age and parallel rules</t>
+  </si>
+  <si>
+    <t>F (F FB) M FZ MB MZ</t>
+  </si>
+  <si>
+    <t>This requires changes to the gender and parallel rules</t>
+  </si>
+  <si>
+    <t>This requires multiple changes to the parallel rule</t>
+  </si>
+  <si>
+    <t>This requires changes to parallel and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age, cross, and parallel rules</t>
+  </si>
+  <si>
+    <t>E (F FB) (M MZ FZ) MB</t>
+  </si>
+  <si>
+    <t>This requires changes to reltaive age, cross, and parallel rules</t>
+  </si>
+  <si>
+    <t>Removing the distinction of crossed men can merge MB with F and FB</t>
+  </si>
+  <si>
+    <t>Lose Cross</t>
+  </si>
+  <si>
+    <t>This requires changes to cross, parallel and gender rules</t>
+  </si>
+  <si>
+    <t>This requires changes to parallel and cross rules</t>
+  </si>
+  <si>
+    <t>This requires changes to parent and parallel rules</t>
+  </si>
+  <si>
+    <t>This requires changes to parent and gender rules</t>
+  </si>
+  <si>
+    <t>This is a partial lose of relative age in MZ</t>
+  </si>
+  <si>
+    <t>D F M FeB FyB MeZ MyZ FZ MB</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age and cross rules</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age and parallel rules</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age rules and lineage rules</t>
+  </si>
+  <si>
+    <t>C (F FB) (M MZ) FZ MB</t>
+  </si>
+  <si>
+    <t>Removing a cross distinction means crossed paren'ts siblings are merged with parent's &amp; paralell siblings</t>
+  </si>
+  <si>
+    <t>This requires changes to parents and gender rules</t>
+  </si>
+  <si>
+    <t>Adding a distinction for Parents to female relatives seperates F and FB</t>
+  </si>
+  <si>
+    <t>Add Parent</t>
+  </si>
+  <si>
+    <t>Thie requires changes to geneder and parent rules</t>
+  </si>
+  <si>
+    <t>Adding a distinction for Parents to female relatives seperates Mother and MZ</t>
+  </si>
+  <si>
+    <t>The partial loss of the cross distinction in women sees the aggregation of FZ into the M MZ term</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age, and parallel distinctions</t>
+  </si>
+  <si>
+    <t>The application of relative age to FB creates this changes</t>
+  </si>
+  <si>
+    <t>B F M FB MB FZ MZ</t>
+  </si>
+  <si>
+    <t>This requires changes to relative age, gender, and lineage</t>
+  </si>
+  <si>
+    <t>This requires removing distinctions based on lineage and parents</t>
+  </si>
+  <si>
+    <t>Partially grouping parents siblings by gender</t>
+  </si>
+  <si>
+    <t>The partial application of parallel grouping to females</t>
+  </si>
+  <si>
+    <t>Add Parallel</t>
+  </si>
+  <si>
+    <t>Partial application of the parallel grouping to males</t>
+  </si>
+  <si>
+    <t>This requires changes to the parallel and gender distinctions</t>
+  </si>
+  <si>
+    <t>Partially adding relative age to paralell parent's siblings. Arguably, this could be considered two rules although the parallel distinction is only implicit witihn the relative age distinction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding a parallel distinction groups parents same-sex siblings </t>
+  </si>
+  <si>
+    <t>A F M (FB MB) (FZ MZ)</t>
+  </si>
+  <si>
+    <t>Adding relative age to all parent's siblings results in this change</t>
+  </si>
+  <si>
+    <t>Removing the distinction of parent means F and M would merge with the remaining gender terms for parent's sibling</t>
+  </si>
+  <si>
+    <t>Lose Parent</t>
+  </si>
+  <si>
+    <t>The partial application of lineage to 'aunt' results in this change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Lineage </t>
+  </si>
+  <si>
+    <t>This requires changes to gender and lineage rules</t>
+  </si>
+  <si>
+    <t>The partial application of lineage to 'uncle' results in this change</t>
+  </si>
+  <si>
+    <t>Adding a lineage distinction on top of a gender distinction creates separate terms for all</t>
+  </si>
+  <si>
+    <t>This change requires at least two changes relating to the addition or loss of gender</t>
+  </si>
+  <si>
+    <t>F (FF MF) FM MM</t>
+  </si>
+  <si>
+    <t>E (FF MM) FM MF</t>
+  </si>
+  <si>
+    <t>D FF MF (FM MM)</t>
+  </si>
+  <si>
+    <t>Remove a lineage distinction from male relatives would result in a kumping based on gender</t>
+  </si>
+  <si>
+    <t>Remove lineage</t>
+  </si>
+  <si>
+    <t>C FF MF FM MM</t>
+  </si>
+  <si>
+    <t>Adding a gendered lineage rule could group male and female lines, while keeping other relative distinct</t>
+  </si>
+  <si>
+    <t>Remove a lineage distinction from female relatives would result in a kumping based on gender</t>
+  </si>
+  <si>
+    <t>To distinguish female grandparents from each other and grandfathers requires the distinction of gender and a partial distinction of lineage</t>
+  </si>
+  <si>
+    <t>B (FF MF FM MM)</t>
+  </si>
+  <si>
+    <t>To change from one kin term to three requires a minimum of two distinctions</t>
+  </si>
+  <si>
+    <t>To distinguish male grandparents from each other and grandmothers requires the distinction of gender and a partial distinction of lineage</t>
+  </si>
+  <si>
+    <t>If we are restricted by rules on lineage and gender, for B to change to C we need to add two rules (distinguish gender, distinguish lineage) for all four grandparents to be seperated</t>
+  </si>
+  <si>
+    <t>Distinguishing female grandparent by lineage would shift from A to D</t>
+  </si>
+  <si>
+    <t>A (FF MF)(FM MM)</t>
+  </si>
+  <si>
+    <t>This change would require the loss of a gender distinction (B or C) and the addition of a unique rule for grouping paternal and maternal lineages</t>
+  </si>
+  <si>
+    <t>Distinguishing male grandparent by lineage would shift from A to D</t>
+  </si>
+  <si>
+    <t>Adding lineage ontop a a gender distinction would separate all grandparents</t>
+  </si>
+  <si>
+    <t>Removing Gender distinction could group all grandparents together</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -737,6 +1967,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -762,9 +1999,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1360,6 +2598,1470 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20C01D5-0360-3945-9EC5-0112C9D4EA6D}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>603</v>
+      </c>
+      <c r="B4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>570</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>603</v>
+      </c>
+      <c r="B6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>603</v>
+      </c>
+      <c r="B7" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" t="s">
+        <v>608</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>603</v>
+      </c>
+      <c r="B9" t="s">
+        <v>550</v>
+      </c>
+      <c r="C9" t="s">
+        <v>608</v>
+      </c>
+      <c r="D9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C10" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>603</v>
+      </c>
+      <c r="B11" t="s">
+        <v>547</v>
+      </c>
+      <c r="C11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>593</v>
+      </c>
+      <c r="B14" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>593</v>
+      </c>
+      <c r="B17" t="s">
+        <v>559</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>593</v>
+      </c>
+      <c r="B18" t="s">
+        <v>554</v>
+      </c>
+      <c r="C18" t="s">
+        <v>598</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>593</v>
+      </c>
+      <c r="B19" t="s">
+        <v>550</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>593</v>
+      </c>
+      <c r="B20" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" t="s">
+        <v>547</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>593</v>
+      </c>
+      <c r="B22" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>583</v>
+      </c>
+      <c r="B23" t="s">
+        <v>579</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B24" t="s">
+        <v>570</v>
+      </c>
+      <c r="C24" t="s">
+        <v>573</v>
+      </c>
+      <c r="D24" t="s">
+        <v>246</v>
+      </c>
+      <c r="E24" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>583</v>
+      </c>
+      <c r="B25" t="s">
+        <v>565</v>
+      </c>
+      <c r="C25" t="s">
+        <v>587</v>
+      </c>
+      <c r="D25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E25" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>583</v>
+      </c>
+      <c r="B26" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>583</v>
+      </c>
+      <c r="B27" t="s">
+        <v>554</v>
+      </c>
+      <c r="C27" t="s">
+        <v>587</v>
+      </c>
+      <c r="D27" t="s">
+        <v>246</v>
+      </c>
+      <c r="E27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>583</v>
+      </c>
+      <c r="B28" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>583</v>
+      </c>
+      <c r="B29" t="s">
+        <v>549</v>
+      </c>
+      <c r="C29" t="s">
+        <v>573</v>
+      </c>
+      <c r="D29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" t="s">
+        <v>245</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>583</v>
+      </c>
+      <c r="B30" t="s">
+        <v>547</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>583</v>
+      </c>
+      <c r="B31" t="s">
+        <v>546</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>579</v>
+      </c>
+      <c r="B32" t="s">
+        <v>570</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>579</v>
+      </c>
+      <c r="B33" t="s">
+        <v>565</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>579</v>
+      </c>
+      <c r="B34" t="s">
+        <v>559</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>579</v>
+      </c>
+      <c r="B35" t="s">
+        <v>554</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>579</v>
+      </c>
+      <c r="B36" t="s">
+        <v>550</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>579</v>
+      </c>
+      <c r="B37" t="s">
+        <v>549</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>579</v>
+      </c>
+      <c r="B38" t="s">
+        <v>547</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>579</v>
+      </c>
+      <c r="B39" t="s">
+        <v>546</v>
+      </c>
+      <c r="C39" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" t="s">
+        <v>246</v>
+      </c>
+      <c r="E39" t="s">
+        <v>270</v>
+      </c>
+      <c r="F39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>570</v>
+      </c>
+      <c r="B40" t="s">
+        <v>565</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>570</v>
+      </c>
+      <c r="B41" t="s">
+        <v>559</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>570</v>
+      </c>
+      <c r="B42" t="s">
+        <v>554</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>570</v>
+      </c>
+      <c r="B43" t="s">
+        <v>550</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>570</v>
+      </c>
+      <c r="B44" t="s">
+        <v>549</v>
+      </c>
+      <c r="C44" t="s">
+        <v>573</v>
+      </c>
+      <c r="D44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>570</v>
+      </c>
+      <c r="B45" t="s">
+        <v>547</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>570</v>
+      </c>
+      <c r="B46" t="s">
+        <v>546</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>565</v>
+      </c>
+      <c r="B47" t="s">
+        <v>559</v>
+      </c>
+      <c r="C47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>565</v>
+      </c>
+      <c r="B48" t="s">
+        <v>554</v>
+      </c>
+      <c r="C48" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>565</v>
+      </c>
+      <c r="B49" t="s">
+        <v>550</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>565</v>
+      </c>
+      <c r="B50" t="s">
+        <v>549</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>565</v>
+      </c>
+      <c r="B51" t="s">
+        <v>547</v>
+      </c>
+      <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>565</v>
+      </c>
+      <c r="B52" t="s">
+        <v>546</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+      <c r="G52" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>559</v>
+      </c>
+      <c r="B53" t="s">
+        <v>554</v>
+      </c>
+      <c r="C53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>559</v>
+      </c>
+      <c r="B54" t="s">
+        <v>550</v>
+      </c>
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>559</v>
+      </c>
+      <c r="B55" t="s">
+        <v>549</v>
+      </c>
+      <c r="C55" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>559</v>
+      </c>
+      <c r="B56" t="s">
+        <v>547</v>
+      </c>
+      <c r="C56" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>559</v>
+      </c>
+      <c r="B57" t="s">
+        <v>546</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="G57" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>554</v>
+      </c>
+      <c r="B58" t="s">
+        <v>550</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>554</v>
+      </c>
+      <c r="B59" t="s">
+        <v>549</v>
+      </c>
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>554</v>
+      </c>
+      <c r="B60" t="s">
+        <v>547</v>
+      </c>
+      <c r="C60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>554</v>
+      </c>
+      <c r="B61" t="s">
+        <v>546</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>550</v>
+      </c>
+      <c r="B62" t="s">
+        <v>549</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>550</v>
+      </c>
+      <c r="B63" t="s">
+        <v>547</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="G63" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>550</v>
+      </c>
+      <c r="B64" t="s">
+        <v>546</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>549</v>
+      </c>
+      <c r="B65" t="s">
+        <v>547</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="G65" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>549</v>
+      </c>
+      <c r="B66" t="s">
+        <v>546</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>547</v>
+      </c>
+      <c r="B67" t="s">
+        <v>546</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G67" xr:uid="{3E5EFB26-25EF-5242-98B7-D4E461A51C27}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Gender"/>
+        <filter val="Add Lineage"/>
+        <filter val="Add Parallel"/>
+        <filter val="Add Parent"/>
+        <filter val="Add relative age"/>
+        <filter val="Lose Cross"/>
+        <filter val="Lose Parent"/>
+        <filter val="Lose relative age"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DB3C94-F933-244F-96AA-AEF8544E8A54}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C3" t="s">
+        <v>477</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B4" t="s">
+        <v>615</v>
+      </c>
+      <c r="C4" t="s">
+        <v>477</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>622</v>
+      </c>
+      <c r="B9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11" t="s">
+        <v>615</v>
+      </c>
+      <c r="C11" t="s">
+        <v>617</v>
+      </c>
+      <c r="D11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>618</v>
+      </c>
+      <c r="B12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>618</v>
+      </c>
+      <c r="B13" t="s">
+        <v>613</v>
+      </c>
+      <c r="C13" t="s">
+        <v>617</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>615</v>
+      </c>
+      <c r="B14" t="s">
+        <v>614</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>615</v>
+      </c>
+      <c r="B15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" t="s">
+        <v>613</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s">
+        <v>612</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G16" xr:uid="{A92F2A2D-A1FD-5E49-B6C6-6634E8B1ACCA}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Lineage"/>
+        <filter val="Lose Gender"/>
+        <filter val="Remove lineage"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4EB25-FDBE-814A-9248-79E818F175D8}">
   <dimension ref="A1:M17"/>
@@ -5456,7 +8158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B1DAD8-DE22-664B-98C9-7E8BF2A578A1}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -6949,4 +9651,5530 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9920E6D5-BC21-B845-AC33-552A7DF4DC57}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" t="s">
+        <v>244</v>
+      </c>
+      <c r="G14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="G15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C19" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>305</v>
+      </c>
+      <c r="B22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" t="s">
+        <v>294</v>
+      </c>
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>305</v>
+      </c>
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>305</v>
+      </c>
+      <c r="B27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" t="s">
+        <v>303</v>
+      </c>
+      <c r="D29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" t="s">
+        <v>270</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>296</v>
+      </c>
+      <c r="B31" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>296</v>
+      </c>
+      <c r="B33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C33" t="s">
+        <v>226</v>
+      </c>
+      <c r="G33" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" t="s">
+        <v>270</v>
+      </c>
+      <c r="F41" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B43" t="s">
+        <v>257</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>285</v>
+      </c>
+      <c r="B44" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>285</v>
+      </c>
+      <c r="B45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" t="s">
+        <v>241</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>285</v>
+      </c>
+      <c r="B47" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>285</v>
+      </c>
+      <c r="B48" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" t="s">
+        <v>231</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>285</v>
+      </c>
+      <c r="B50" t="s">
+        <v>228</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" t="s">
+        <v>280</v>
+      </c>
+      <c r="D52" t="s">
+        <v>246</v>
+      </c>
+      <c r="E52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>277</v>
+      </c>
+      <c r="B53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C55" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" t="s">
+        <v>244</v>
+      </c>
+      <c r="G56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="G57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>277</v>
+      </c>
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" t="s">
+        <v>228</v>
+      </c>
+      <c r="C60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>265</v>
+      </c>
+      <c r="B62" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>265</v>
+      </c>
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="G63" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>251</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" t="s">
+        <v>241</v>
+      </c>
+      <c r="C65" t="s">
+        <v>274</v>
+      </c>
+      <c r="D65" t="s">
+        <v>246</v>
+      </c>
+      <c r="E65" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" t="s">
+        <v>244</v>
+      </c>
+      <c r="G65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" t="s">
+        <v>271</v>
+      </c>
+      <c r="D67" t="s">
+        <v>246</v>
+      </c>
+      <c r="E67" t="s">
+        <v>270</v>
+      </c>
+      <c r="F67" t="s">
+        <v>269</v>
+      </c>
+      <c r="G67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>265</v>
+      </c>
+      <c r="B68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>265</v>
+      </c>
+      <c r="B69" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" t="s">
+        <v>227</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>257</v>
+      </c>
+      <c r="B71" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" t="s">
+        <v>251</v>
+      </c>
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="G72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>257</v>
+      </c>
+      <c r="B73" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>257</v>
+      </c>
+      <c r="B74" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="G74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>257</v>
+      </c>
+      <c r="B75" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>257</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="G76" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
+        <v>226</v>
+      </c>
+      <c r="G78" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>253</v>
+      </c>
+      <c r="B81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="G81" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" t="s">
+        <v>226</v>
+      </c>
+      <c r="G82" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83" t="s">
+        <v>231</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>253</v>
+      </c>
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" t="s">
+        <v>226</v>
+      </c>
+      <c r="G84" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" t="s">
+        <v>226</v>
+      </c>
+      <c r="G85" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>251</v>
+      </c>
+      <c r="B86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C86" t="s">
+        <v>226</v>
+      </c>
+      <c r="G86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>251</v>
+      </c>
+      <c r="B87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="G87" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>251</v>
+      </c>
+      <c r="B88" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" t="s">
+        <v>226</v>
+      </c>
+      <c r="G88" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C89" t="s">
+        <v>226</v>
+      </c>
+      <c r="G89" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>251</v>
+      </c>
+      <c r="B90" t="s">
+        <v>228</v>
+      </c>
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
+      <c r="G90" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" t="s">
+        <v>226</v>
+      </c>
+      <c r="G91" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92" t="s">
+        <v>226</v>
+      </c>
+      <c r="G92" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>241</v>
+      </c>
+      <c r="B93" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" t="s">
+        <v>226</v>
+      </c>
+      <c r="G93" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>241</v>
+      </c>
+      <c r="B94" t="s">
+        <v>231</v>
+      </c>
+      <c r="C94" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" t="s">
+        <v>245</v>
+      </c>
+      <c r="F94" t="s">
+        <v>244</v>
+      </c>
+      <c r="G94" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>241</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="s">
+        <v>226</v>
+      </c>
+      <c r="G95" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" t="s">
+        <v>226</v>
+      </c>
+      <c r="G96" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" t="s">
+        <v>226</v>
+      </c>
+      <c r="G97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" t="s">
+        <v>226</v>
+      </c>
+      <c r="G98" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" t="s">
+        <v>228</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="G99" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>238</v>
+      </c>
+      <c r="B100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" t="s">
+        <v>226</v>
+      </c>
+      <c r="G100" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>234</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101" t="s">
+        <v>226</v>
+      </c>
+      <c r="G101" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" t="s">
+        <v>226</v>
+      </c>
+      <c r="G102" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" t="s">
+        <v>226</v>
+      </c>
+      <c r="G103" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>231</v>
+      </c>
+      <c r="B104" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" t="s">
+        <v>226</v>
+      </c>
+      <c r="G104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>231</v>
+      </c>
+      <c r="B105" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" t="s">
+        <v>230</v>
+      </c>
+      <c r="G105" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="G106" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G106" xr:uid="{51E7BD42-57FB-6D4E-AF53-A7FDDB06A027}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Gender"/>
+        <filter val="Add relative age"/>
+        <filter val="Add relative sex"/>
+        <filter val="Lose Gender"/>
+        <filter val="Lose Lineage"/>
+        <filter val="Lose relative age"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B56AB1-1552-FB4C-B706-8FC55C2B4D2D}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:H106"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" t="s">
+        <v>432</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" t="s">
+        <v>429</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>415</v>
+      </c>
+      <c r="D8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" t="s">
+        <v>270</v>
+      </c>
+      <c r="F8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" t="s">
+        <v>427</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" t="s">
+        <v>425</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" t="s">
+        <v>424</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" t="s">
+        <v>423</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" t="s">
+        <v>422</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" t="s">
+        <v>419</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C18" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C19" t="s">
+        <v>415</v>
+      </c>
+      <c r="D19" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" t="s">
+        <v>246</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E31" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C33" t="s">
+        <v>393</v>
+      </c>
+      <c r="D33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" t="s">
+        <v>245</v>
+      </c>
+      <c r="F35" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C40" t="s">
+        <v>393</v>
+      </c>
+      <c r="D40" t="s">
+        <v>246</v>
+      </c>
+      <c r="E40" t="s">
+        <v>270</v>
+      </c>
+      <c r="F40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" t="s">
+        <v>226</v>
+      </c>
+      <c r="G47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C48" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C52" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" t="s">
+        <v>385</v>
+      </c>
+      <c r="E52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" t="s">
+        <v>246</v>
+      </c>
+      <c r="E55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" t="s">
+        <v>244</v>
+      </c>
+      <c r="G55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" t="s">
+        <v>245</v>
+      </c>
+      <c r="F56" t="s">
+        <v>269</v>
+      </c>
+      <c r="G56" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" t="s">
+        <v>355</v>
+      </c>
+      <c r="D57" t="s">
+        <v>246</v>
+      </c>
+      <c r="E57" t="s">
+        <v>270</v>
+      </c>
+      <c r="F57" t="s">
+        <v>269</v>
+      </c>
+      <c r="G57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C58" t="s">
+        <v>355</v>
+      </c>
+      <c r="D58" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" t="s">
+        <v>270</v>
+      </c>
+      <c r="F58" t="s">
+        <v>269</v>
+      </c>
+      <c r="G58" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="G63" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="G65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C71" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" t="s">
+        <v>246</v>
+      </c>
+      <c r="E72" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" t="s">
+        <v>269</v>
+      </c>
+      <c r="G72" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G73" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="G74" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C75" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" t="s">
+        <v>246</v>
+      </c>
+      <c r="E75" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75" t="s">
+        <v>244</v>
+      </c>
+      <c r="G75" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="G76" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C77" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" t="s">
+        <v>307</v>
+      </c>
+      <c r="E77" t="s">
+        <v>270</v>
+      </c>
+      <c r="F77" t="s">
+        <v>269</v>
+      </c>
+      <c r="G77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C78" t="s">
+        <v>226</v>
+      </c>
+      <c r="G78" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C79" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="G81" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C82" t="s">
+        <v>226</v>
+      </c>
+      <c r="G82" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="G83" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C84" t="s">
+        <v>226</v>
+      </c>
+      <c r="G84" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" t="s">
+        <v>226</v>
+      </c>
+      <c r="G85" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C86" t="s">
+        <v>226</v>
+      </c>
+      <c r="G86" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="G87" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" t="s">
+        <v>226</v>
+      </c>
+      <c r="G88" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C89" t="s">
+        <v>226</v>
+      </c>
+      <c r="G89" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C90" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" t="s">
+        <v>246</v>
+      </c>
+      <c r="E90" t="s">
+        <v>245</v>
+      </c>
+      <c r="F90" t="s">
+        <v>269</v>
+      </c>
+      <c r="G90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C91" t="s">
+        <v>226</v>
+      </c>
+      <c r="G91" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C92" t="s">
+        <v>352</v>
+      </c>
+      <c r="D92" t="s">
+        <v>246</v>
+      </c>
+      <c r="E92" t="s">
+        <v>270</v>
+      </c>
+      <c r="F92" t="s">
+        <v>269</v>
+      </c>
+      <c r="G92" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93" t="s">
+        <v>246</v>
+      </c>
+      <c r="E93" t="s">
+        <v>270</v>
+      </c>
+      <c r="F93" t="s">
+        <v>269</v>
+      </c>
+      <c r="G93" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="G94" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" t="s">
+        <v>307</v>
+      </c>
+      <c r="E95" t="s">
+        <v>270</v>
+      </c>
+      <c r="F95" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C96" t="s">
+        <v>226</v>
+      </c>
+      <c r="G96" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C97" t="s">
+        <v>226</v>
+      </c>
+      <c r="G97" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" t="s">
+        <v>226</v>
+      </c>
+      <c r="G98" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="G99" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C100" t="s">
+        <v>226</v>
+      </c>
+      <c r="G100" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C101" t="s">
+        <v>226</v>
+      </c>
+      <c r="G101" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C102" t="s">
+        <v>226</v>
+      </c>
+      <c r="G102" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C103" t="s">
+        <v>226</v>
+      </c>
+      <c r="G103" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C104" t="s">
+        <v>226</v>
+      </c>
+      <c r="G104" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C105" t="s">
+        <v>226</v>
+      </c>
+      <c r="G105" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="G106" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G106" xr:uid="{B5EFEBA5-5F6C-9741-9D9E-CF931C46615B}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Add Gender"/>
+        <filter val="Add relative Age"/>
+        <filter val="Add relative sex distinction"/>
+        <filter val="Add sex of speaker"/>
+        <filter val="Lose Gender"/>
+        <filter val="Lose Relative Age"/>
+        <filter val="Lose sex of speaker"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E0E981-836C-5A4A-9430-0785E4A16F6C}">
+  <dimension ref="A1:G137"/>
+  <sheetViews>
+    <sheetView topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>533</v>
+      </c>
+      <c r="B5" t="s">
+        <v>498</v>
+      </c>
+      <c r="C5" t="s">
+        <v>477</v>
+      </c>
+      <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B8" t="s">
+        <v>472</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>533</v>
+      </c>
+      <c r="B9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B10" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B11" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" t="s">
+        <v>226</v>
+      </c>
+      <c r="G12" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>533</v>
+      </c>
+      <c r="B14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>533</v>
+      </c>
+      <c r="B16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
+      </c>
+      <c r="F16" t="s">
+        <v>244</v>
+      </c>
+      <c r="G16" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>533</v>
+      </c>
+      <c r="B17" t="s">
+        <v>435</v>
+      </c>
+      <c r="C17" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>520</v>
+      </c>
+      <c r="B18" t="s">
+        <v>514</v>
+      </c>
+      <c r="C18" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>520</v>
+      </c>
+      <c r="B19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" t="s">
+        <v>246</v>
+      </c>
+      <c r="E19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G19" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" t="s">
+        <v>226</v>
+      </c>
+      <c r="G20" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>520</v>
+      </c>
+      <c r="B22" t="s">
+        <v>481</v>
+      </c>
+      <c r="C22" t="s">
+        <v>226</v>
+      </c>
+      <c r="G22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>520</v>
+      </c>
+      <c r="B23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C23" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>520</v>
+      </c>
+      <c r="B24" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" t="s">
+        <v>457</v>
+      </c>
+      <c r="C25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+      <c r="G26" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>520</v>
+      </c>
+      <c r="B28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>520</v>
+      </c>
+      <c r="B29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>520</v>
+      </c>
+      <c r="B30" t="s">
+        <v>438</v>
+      </c>
+      <c r="C30" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" t="s">
+        <v>246</v>
+      </c>
+      <c r="E30" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>520</v>
+      </c>
+      <c r="B31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>520</v>
+      </c>
+      <c r="B32" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>514</v>
+      </c>
+      <c r="B33" t="s">
+        <v>505</v>
+      </c>
+      <c r="C33" t="s">
+        <v>477</v>
+      </c>
+      <c r="D33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E33" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>514</v>
+      </c>
+      <c r="B34" t="s">
+        <v>498</v>
+      </c>
+      <c r="C34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>514</v>
+      </c>
+      <c r="B35" t="s">
+        <v>488</v>
+      </c>
+      <c r="C35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>514</v>
+      </c>
+      <c r="B36" t="s">
+        <v>481</v>
+      </c>
+      <c r="C36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B37" t="s">
+        <v>472</v>
+      </c>
+      <c r="C37" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>514</v>
+      </c>
+      <c r="B38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C38" t="s">
+        <v>226</v>
+      </c>
+      <c r="G38" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>514</v>
+      </c>
+      <c r="B39" t="s">
+        <v>457</v>
+      </c>
+      <c r="C39" t="s">
+        <v>226</v>
+      </c>
+      <c r="G39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>514</v>
+      </c>
+      <c r="B40" t="s">
+        <v>451</v>
+      </c>
+      <c r="C40" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>514</v>
+      </c>
+      <c r="B41" t="s">
+        <v>446</v>
+      </c>
+      <c r="C41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>514</v>
+      </c>
+      <c r="B42" t="s">
+        <v>443</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="G42" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>514</v>
+      </c>
+      <c r="B43" t="s">
+        <v>441</v>
+      </c>
+      <c r="C43" t="s">
+        <v>226</v>
+      </c>
+      <c r="G43" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>514</v>
+      </c>
+      <c r="B44" t="s">
+        <v>438</v>
+      </c>
+      <c r="C44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>514</v>
+      </c>
+      <c r="B45" t="s">
+        <v>436</v>
+      </c>
+      <c r="C45" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>514</v>
+      </c>
+      <c r="B46" t="s">
+        <v>435</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="G46" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>505</v>
+      </c>
+      <c r="B47" t="s">
+        <v>498</v>
+      </c>
+      <c r="C47" t="s">
+        <v>274</v>
+      </c>
+      <c r="D47" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
+      <c r="F47" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>505</v>
+      </c>
+      <c r="B48" t="s">
+        <v>488</v>
+      </c>
+      <c r="C48" t="s">
+        <v>226</v>
+      </c>
+      <c r="G48" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>505</v>
+      </c>
+      <c r="B49" t="s">
+        <v>481</v>
+      </c>
+      <c r="C49" t="s">
+        <v>226</v>
+      </c>
+      <c r="G49" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>505</v>
+      </c>
+      <c r="B50" t="s">
+        <v>472</v>
+      </c>
+      <c r="C50" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>505</v>
+      </c>
+      <c r="B51" t="s">
+        <v>464</v>
+      </c>
+      <c r="C51" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>505</v>
+      </c>
+      <c r="B52" t="s">
+        <v>457</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+      <c r="G52" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>505</v>
+      </c>
+      <c r="B53" t="s">
+        <v>451</v>
+      </c>
+      <c r="C53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>505</v>
+      </c>
+      <c r="B54" t="s">
+        <v>446</v>
+      </c>
+      <c r="C54" t="s">
+        <v>226</v>
+      </c>
+      <c r="G54" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>505</v>
+      </c>
+      <c r="B55" t="s">
+        <v>443</v>
+      </c>
+      <c r="C55" t="s">
+        <v>226</v>
+      </c>
+      <c r="G55" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>505</v>
+      </c>
+      <c r="B56" t="s">
+        <v>441</v>
+      </c>
+      <c r="C56" t="s">
+        <v>461</v>
+      </c>
+      <c r="D56" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" t="s">
+        <v>270</v>
+      </c>
+      <c r="F56" t="s">
+        <v>244</v>
+      </c>
+      <c r="G56" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>505</v>
+      </c>
+      <c r="B57" t="s">
+        <v>438</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="G57" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>505</v>
+      </c>
+      <c r="B58" t="s">
+        <v>436</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="G58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>505</v>
+      </c>
+      <c r="B59" t="s">
+        <v>435</v>
+      </c>
+      <c r="C59" t="s">
+        <v>226</v>
+      </c>
+      <c r="G59" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>498</v>
+      </c>
+      <c r="B60" t="s">
+        <v>488</v>
+      </c>
+      <c r="C60" t="s">
+        <v>226</v>
+      </c>
+      <c r="G60" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>498</v>
+      </c>
+      <c r="B61" t="s">
+        <v>481</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>498</v>
+      </c>
+      <c r="B62" t="s">
+        <v>472</v>
+      </c>
+      <c r="C62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>498</v>
+      </c>
+      <c r="B63" t="s">
+        <v>464</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="G63" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>498</v>
+      </c>
+      <c r="B64" t="s">
+        <v>457</v>
+      </c>
+      <c r="C64" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>498</v>
+      </c>
+      <c r="B65" t="s">
+        <v>451</v>
+      </c>
+      <c r="C65" t="s">
+        <v>226</v>
+      </c>
+      <c r="G65" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>498</v>
+      </c>
+      <c r="B66" t="s">
+        <v>446</v>
+      </c>
+      <c r="C66" t="s">
+        <v>226</v>
+      </c>
+      <c r="G66" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>498</v>
+      </c>
+      <c r="B67" t="s">
+        <v>443</v>
+      </c>
+      <c r="C67" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>498</v>
+      </c>
+      <c r="B68" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" t="s">
+        <v>226</v>
+      </c>
+      <c r="G68" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>498</v>
+      </c>
+      <c r="B69" t="s">
+        <v>438</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="G69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>498</v>
+      </c>
+      <c r="B70" t="s">
+        <v>436</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>498</v>
+      </c>
+      <c r="B71" t="s">
+        <v>435</v>
+      </c>
+      <c r="C71" t="s">
+        <v>226</v>
+      </c>
+      <c r="G71" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>488</v>
+      </c>
+      <c r="B72" t="s">
+        <v>481</v>
+      </c>
+      <c r="C72" t="s">
+        <v>226</v>
+      </c>
+      <c r="G72" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>488</v>
+      </c>
+      <c r="B73" t="s">
+        <v>472</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="G73" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>488</v>
+      </c>
+      <c r="B74" t="s">
+        <v>464</v>
+      </c>
+      <c r="C74" t="s">
+        <v>226</v>
+      </c>
+      <c r="G74" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>488</v>
+      </c>
+      <c r="B75" t="s">
+        <v>457</v>
+      </c>
+      <c r="C75" t="s">
+        <v>226</v>
+      </c>
+      <c r="G75" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>488</v>
+      </c>
+      <c r="B76" t="s">
+        <v>451</v>
+      </c>
+      <c r="C76" t="s">
+        <v>226</v>
+      </c>
+      <c r="G76" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>488</v>
+      </c>
+      <c r="B77" t="s">
+        <v>446</v>
+      </c>
+      <c r="C77" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>488</v>
+      </c>
+      <c r="B78" t="s">
+        <v>443</v>
+      </c>
+      <c r="C78" t="s">
+        <v>226</v>
+      </c>
+      <c r="G78" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>488</v>
+      </c>
+      <c r="B79" t="s">
+        <v>441</v>
+      </c>
+      <c r="C79" t="s">
+        <v>226</v>
+      </c>
+      <c r="G79" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>488</v>
+      </c>
+      <c r="B80" t="s">
+        <v>438</v>
+      </c>
+      <c r="C80" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>488</v>
+      </c>
+      <c r="B81" t="s">
+        <v>436</v>
+      </c>
+      <c r="C81" t="s">
+        <v>226</v>
+      </c>
+      <c r="G81" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" t="s">
+        <v>435</v>
+      </c>
+      <c r="C82" t="s">
+        <v>226</v>
+      </c>
+      <c r="G82" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>481</v>
+      </c>
+      <c r="B83" t="s">
+        <v>472</v>
+      </c>
+      <c r="C83" t="s">
+        <v>280</v>
+      </c>
+      <c r="D83" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83" t="s">
+        <v>245</v>
+      </c>
+      <c r="F83" t="s">
+        <v>244</v>
+      </c>
+      <c r="G83" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>481</v>
+      </c>
+      <c r="B84" t="s">
+        <v>464</v>
+      </c>
+      <c r="C84" t="s">
+        <v>226</v>
+      </c>
+      <c r="G84" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>481</v>
+      </c>
+      <c r="B85" t="s">
+        <v>457</v>
+      </c>
+      <c r="C85" t="s">
+        <v>226</v>
+      </c>
+      <c r="G85" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>481</v>
+      </c>
+      <c r="B86" t="s">
+        <v>451</v>
+      </c>
+      <c r="C86" t="s">
+        <v>226</v>
+      </c>
+      <c r="G86" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>481</v>
+      </c>
+      <c r="B87" t="s">
+        <v>446</v>
+      </c>
+      <c r="C87" t="s">
+        <v>226</v>
+      </c>
+      <c r="G87" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>481</v>
+      </c>
+      <c r="B88" t="s">
+        <v>443</v>
+      </c>
+      <c r="C88" t="s">
+        <v>226</v>
+      </c>
+      <c r="G88" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>481</v>
+      </c>
+      <c r="B89" t="s">
+        <v>441</v>
+      </c>
+      <c r="C89" t="s">
+        <v>226</v>
+      </c>
+      <c r="G89" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>481</v>
+      </c>
+      <c r="B90" t="s">
+        <v>438</v>
+      </c>
+      <c r="C90" t="s">
+        <v>226</v>
+      </c>
+      <c r="G90" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>481</v>
+      </c>
+      <c r="B91" t="s">
+        <v>436</v>
+      </c>
+      <c r="C91" t="s">
+        <v>483</v>
+      </c>
+      <c r="D91" t="s">
+        <v>246</v>
+      </c>
+      <c r="E91" t="s">
+        <v>270</v>
+      </c>
+      <c r="F91" t="s">
+        <v>244</v>
+      </c>
+      <c r="G91" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>481</v>
+      </c>
+      <c r="B92" t="s">
+        <v>435</v>
+      </c>
+      <c r="C92" t="s">
+        <v>226</v>
+      </c>
+      <c r="G92" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>472</v>
+      </c>
+      <c r="B93" t="s">
+        <v>464</v>
+      </c>
+      <c r="C93" t="s">
+        <v>226</v>
+      </c>
+      <c r="G93" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>472</v>
+      </c>
+      <c r="B94" t="s">
+        <v>457</v>
+      </c>
+      <c r="C94" t="s">
+        <v>226</v>
+      </c>
+      <c r="G94" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>472</v>
+      </c>
+      <c r="B95" t="s">
+        <v>451</v>
+      </c>
+      <c r="C95" t="s">
+        <v>226</v>
+      </c>
+      <c r="G95" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>472</v>
+      </c>
+      <c r="B96" t="s">
+        <v>446</v>
+      </c>
+      <c r="C96" t="s">
+        <v>226</v>
+      </c>
+      <c r="G96" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>472</v>
+      </c>
+      <c r="B97" t="s">
+        <v>443</v>
+      </c>
+      <c r="C97" t="s">
+        <v>477</v>
+      </c>
+      <c r="D97" t="s">
+        <v>246</v>
+      </c>
+      <c r="E97" t="s">
+        <v>270</v>
+      </c>
+      <c r="F97" t="s">
+        <v>244</v>
+      </c>
+      <c r="G97" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>472</v>
+      </c>
+      <c r="B98" t="s">
+        <v>441</v>
+      </c>
+      <c r="C98" t="s">
+        <v>226</v>
+      </c>
+      <c r="G98" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>472</v>
+      </c>
+      <c r="B99" t="s">
+        <v>438</v>
+      </c>
+      <c r="C99" t="s">
+        <v>226</v>
+      </c>
+      <c r="G99" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>472</v>
+      </c>
+      <c r="B100" t="s">
+        <v>436</v>
+      </c>
+      <c r="C100" t="s">
+        <v>226</v>
+      </c>
+      <c r="G100" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>472</v>
+      </c>
+      <c r="B101" t="s">
+        <v>435</v>
+      </c>
+      <c r="C101" t="s">
+        <v>226</v>
+      </c>
+      <c r="G101" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>464</v>
+      </c>
+      <c r="B102" t="s">
+        <v>457</v>
+      </c>
+      <c r="C102" t="s">
+        <v>226</v>
+      </c>
+      <c r="G102" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>464</v>
+      </c>
+      <c r="B103" t="s">
+        <v>451</v>
+      </c>
+      <c r="C103" t="s">
+        <v>274</v>
+      </c>
+      <c r="D103" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" t="s">
+        <v>270</v>
+      </c>
+      <c r="F103" t="s">
+        <v>244</v>
+      </c>
+      <c r="G103" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>464</v>
+      </c>
+      <c r="B104" t="s">
+        <v>446</v>
+      </c>
+      <c r="C104" t="s">
+        <v>226</v>
+      </c>
+      <c r="G104" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>464</v>
+      </c>
+      <c r="B105" t="s">
+        <v>443</v>
+      </c>
+      <c r="C105" t="s">
+        <v>226</v>
+      </c>
+      <c r="G105" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>464</v>
+      </c>
+      <c r="B106" t="s">
+        <v>441</v>
+      </c>
+      <c r="C106" t="s">
+        <v>226</v>
+      </c>
+      <c r="G106" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>464</v>
+      </c>
+      <c r="B107" t="s">
+        <v>438</v>
+      </c>
+      <c r="C107" t="s">
+        <v>226</v>
+      </c>
+      <c r="G107" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>464</v>
+      </c>
+      <c r="B108" t="s">
+        <v>436</v>
+      </c>
+      <c r="C108" t="s">
+        <v>226</v>
+      </c>
+      <c r="G108" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>464</v>
+      </c>
+      <c r="B109" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>226</v>
+      </c>
+      <c r="G109" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>457</v>
+      </c>
+      <c r="B110" t="s">
+        <v>451</v>
+      </c>
+      <c r="C110" t="s">
+        <v>226</v>
+      </c>
+      <c r="G110" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>457</v>
+      </c>
+      <c r="B111" t="s">
+        <v>446</v>
+      </c>
+      <c r="C111" t="s">
+        <v>461</v>
+      </c>
+      <c r="D111" t="s">
+        <v>246</v>
+      </c>
+      <c r="E111" t="s">
+        <v>270</v>
+      </c>
+      <c r="F111" t="s">
+        <v>244</v>
+      </c>
+      <c r="G111" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>457</v>
+      </c>
+      <c r="B112" t="s">
+        <v>443</v>
+      </c>
+      <c r="C112" t="s">
+        <v>226</v>
+      </c>
+      <c r="G112" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>457</v>
+      </c>
+      <c r="B113" t="s">
+        <v>441</v>
+      </c>
+      <c r="C113" t="s">
+        <v>226</v>
+      </c>
+      <c r="G113" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>457</v>
+      </c>
+      <c r="B114" t="s">
+        <v>438</v>
+      </c>
+      <c r="C114" t="s">
+        <v>226</v>
+      </c>
+      <c r="G114" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>457</v>
+      </c>
+      <c r="B115" t="s">
+        <v>436</v>
+      </c>
+      <c r="C115" t="s">
+        <v>226</v>
+      </c>
+      <c r="G115" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>457</v>
+      </c>
+      <c r="B116" t="s">
+        <v>435</v>
+      </c>
+      <c r="C116" t="s">
+        <v>226</v>
+      </c>
+      <c r="G116" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>451</v>
+      </c>
+      <c r="B117" t="s">
+        <v>446</v>
+      </c>
+      <c r="C117" t="s">
+        <v>226</v>
+      </c>
+      <c r="G117" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>451</v>
+      </c>
+      <c r="B118" t="s">
+        <v>443</v>
+      </c>
+      <c r="C118" t="s">
+        <v>226</v>
+      </c>
+      <c r="G118" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>451</v>
+      </c>
+      <c r="B119" t="s">
+        <v>441</v>
+      </c>
+      <c r="C119" t="s">
+        <v>226</v>
+      </c>
+      <c r="G119" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>451</v>
+      </c>
+      <c r="B120" t="s">
+        <v>438</v>
+      </c>
+      <c r="C120" t="s">
+        <v>226</v>
+      </c>
+      <c r="G120" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>451</v>
+      </c>
+      <c r="B121" t="s">
+        <v>436</v>
+      </c>
+      <c r="C121" t="s">
+        <v>226</v>
+      </c>
+      <c r="G121" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>451</v>
+      </c>
+      <c r="B122" t="s">
+        <v>435</v>
+      </c>
+      <c r="C122" t="s">
+        <v>226</v>
+      </c>
+      <c r="G122" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>446</v>
+      </c>
+      <c r="B123" t="s">
+        <v>443</v>
+      </c>
+      <c r="C123" t="s">
+        <v>226</v>
+      </c>
+      <c r="G123" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>446</v>
+      </c>
+      <c r="B124" t="s">
+        <v>441</v>
+      </c>
+      <c r="C124" t="s">
+        <v>226</v>
+      </c>
+      <c r="G124" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>446</v>
+      </c>
+      <c r="B125" t="s">
+        <v>438</v>
+      </c>
+      <c r="C125" t="s">
+        <v>226</v>
+      </c>
+      <c r="G125" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>446</v>
+      </c>
+      <c r="B126" t="s">
+        <v>436</v>
+      </c>
+      <c r="C126" t="s">
+        <v>226</v>
+      </c>
+      <c r="G126" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>446</v>
+      </c>
+      <c r="B127" t="s">
+        <v>435</v>
+      </c>
+      <c r="C127" t="s">
+        <v>226</v>
+      </c>
+      <c r="G127" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>443</v>
+      </c>
+      <c r="B128" t="s">
+        <v>441</v>
+      </c>
+      <c r="C128" t="s">
+        <v>226</v>
+      </c>
+      <c r="G128" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>443</v>
+      </c>
+      <c r="B129" t="s">
+        <v>438</v>
+      </c>
+      <c r="C129" t="s">
+        <v>226</v>
+      </c>
+      <c r="G129" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>443</v>
+      </c>
+      <c r="B130" t="s">
+        <v>436</v>
+      </c>
+      <c r="C130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G130" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>443</v>
+      </c>
+      <c r="B131" t="s">
+        <v>435</v>
+      </c>
+      <c r="C131" t="s">
+        <v>226</v>
+      </c>
+      <c r="G131" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>441</v>
+      </c>
+      <c r="B132" t="s">
+        <v>438</v>
+      </c>
+      <c r="C132" t="s">
+        <v>226</v>
+      </c>
+      <c r="G132" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>441</v>
+      </c>
+      <c r="B133" t="s">
+        <v>436</v>
+      </c>
+      <c r="C133" t="s">
+        <v>226</v>
+      </c>
+      <c r="G133" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>441</v>
+      </c>
+      <c r="B134" t="s">
+        <v>435</v>
+      </c>
+      <c r="C134" t="s">
+        <v>226</v>
+      </c>
+      <c r="G134" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>438</v>
+      </c>
+      <c r="B135" t="s">
+        <v>436</v>
+      </c>
+      <c r="C135" t="s">
+        <v>226</v>
+      </c>
+      <c r="G135" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>438</v>
+      </c>
+      <c r="B136" t="s">
+        <v>435</v>
+      </c>
+      <c r="C136" t="s">
+        <v>226</v>
+      </c>
+      <c r="G136" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>436</v>
+      </c>
+      <c r="B137" t="s">
+        <v>435</v>
+      </c>
+      <c r="C137" t="s">
+        <v>226</v>
+      </c>
+      <c r="G137" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>